--- a/target/classes/TestData/TestData.xlsx
+++ b/target/classes/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>secret123</t>
   </si>
@@ -27,9 +27,6 @@
     <t>mypassword123</t>
   </si>
   <si>
-    <t>johndoe1@example.com</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -39,12 +36,6 @@
     <t>Ahmed</t>
   </si>
   <si>
-    <t>Ebrahim</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -54,10 +45,25 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>janesmith1@example.com</t>
-  </si>
-  <si>
-    <t>johndoe12@example.com</t>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Ebrahim2</t>
+  </si>
+  <si>
+    <t>Ahmed3</t>
+  </si>
+  <si>
+    <t>Mohamed4</t>
+  </si>
+  <si>
+    <t>janesmith543@example.com</t>
+  </si>
+  <si>
+    <t>johndoe2544@example.com</t>
+  </si>
+  <si>
+    <t>john23e245@example.com</t>
   </si>
 </sst>
 </file>
@@ -389,40 +395,40 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -430,13 +436,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -444,13 +450,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
